--- a/data/pca/factorExposure/factorExposure_2019-01-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.09945416250554459</v>
+        <v>0.06503052079280471</v>
       </c>
       <c r="C2">
-        <v>-0.01694717247750188</v>
+        <v>-0.03071480771430303</v>
       </c>
       <c r="D2">
-        <v>-0.07253733104233917</v>
+        <v>-0.01899041488871432</v>
       </c>
       <c r="E2">
-        <v>-0.01262031170097093</v>
+        <v>-0.04014180636458193</v>
       </c>
       <c r="F2">
-        <v>-0.1400744764503569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1353729690441476</v>
+      </c>
+      <c r="G2">
+        <v>0.05057731669002412</v>
+      </c>
+      <c r="H2">
+        <v>0.05625731502203749</v>
+      </c>
+      <c r="I2">
+        <v>-0.1123342511829888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2073406490482951</v>
+        <v>0.1508253780545081</v>
       </c>
       <c r="C3">
-        <v>0.1345395000939178</v>
+        <v>-0.1039333163928677</v>
       </c>
       <c r="D3">
-        <v>-0.08847913277561427</v>
+        <v>0.003065514350108306</v>
       </c>
       <c r="E3">
-        <v>0.01240997758542881</v>
+        <v>0.01836246879894702</v>
       </c>
       <c r="F3">
-        <v>-0.3871952155862007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.4034871810188486</v>
+      </c>
+      <c r="G3">
+        <v>0.2641239594054912</v>
+      </c>
+      <c r="H3">
+        <v>0.08506330334021465</v>
+      </c>
+      <c r="I3">
+        <v>-0.3623636389280471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0907510044808402</v>
+        <v>0.06852480512102334</v>
       </c>
       <c r="C4">
-        <v>0.02479736446579817</v>
+        <v>-0.04984038741548514</v>
       </c>
       <c r="D4">
-        <v>-0.06232202311078203</v>
+        <v>0.01468471726038796</v>
       </c>
       <c r="E4">
-        <v>0.03425496618832687</v>
+        <v>-0.03949369372398849</v>
       </c>
       <c r="F4">
-        <v>-0.07403473108898694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08060558657392862</v>
+      </c>
+      <c r="G4">
+        <v>0.02450570390673765</v>
+      </c>
+      <c r="H4">
+        <v>0.04446456386331905</v>
+      </c>
+      <c r="I4">
+        <v>-0.05720124664148024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02572901395317292</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01156453638525792</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.003995231667088378</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005977178508154404</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.007583995819032185</v>
+      </c>
+      <c r="G6">
+        <v>-0.02217872173560244</v>
+      </c>
+      <c r="H6">
+        <v>-0.01737562798528542</v>
+      </c>
+      <c r="I6">
+        <v>-0.001489270924055499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04181814966365398</v>
+        <v>0.03325348970345561</v>
       </c>
       <c r="C7">
-        <v>0.003330100652232215</v>
+        <v>-0.02034568097807844</v>
       </c>
       <c r="D7">
-        <v>-0.04734698681903159</v>
+        <v>0.03627954967299641</v>
       </c>
       <c r="E7">
-        <v>-0.001387966093321226</v>
+        <v>-0.02725006435885338</v>
       </c>
       <c r="F7">
-        <v>-0.07065702795411313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05045032072118357</v>
+      </c>
+      <c r="G7">
+        <v>0.05107064507788963</v>
+      </c>
+      <c r="H7">
+        <v>-0.004978054475551222</v>
+      </c>
+      <c r="I7">
+        <v>-0.03508430982219384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05220157072688346</v>
+        <v>0.02428540955926437</v>
       </c>
       <c r="C8">
-        <v>0.04587471077096159</v>
+        <v>-0.05269826319937568</v>
       </c>
       <c r="D8">
-        <v>-0.04312092960146587</v>
+        <v>0.01093307944583752</v>
       </c>
       <c r="E8">
-        <v>0.02816370676181392</v>
+        <v>-0.01755248952638301</v>
       </c>
       <c r="F8">
-        <v>-0.07841177854379987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07838533441323095</v>
+      </c>
+      <c r="G8">
+        <v>0.04268591647981693</v>
+      </c>
+      <c r="H8">
+        <v>0.0354573399804489</v>
+      </c>
+      <c r="I8">
+        <v>-0.06424625233824377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07530773499184598</v>
+        <v>0.05707679159807426</v>
       </c>
       <c r="C9">
-        <v>0.01570874182804087</v>
+        <v>-0.04275951164010858</v>
       </c>
       <c r="D9">
-        <v>-0.0593432161900015</v>
+        <v>0.01764083038919197</v>
       </c>
       <c r="E9">
-        <v>0.04641847338065254</v>
+        <v>-0.03506290429650465</v>
       </c>
       <c r="F9">
-        <v>-0.0610627596667428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.08202028150332419</v>
+      </c>
+      <c r="G9">
+        <v>0.02162236326181024</v>
+      </c>
+      <c r="H9">
+        <v>0.04128735783648562</v>
+      </c>
+      <c r="I9">
+        <v>-0.03434752750847678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03429338449860757</v>
+        <v>0.04192548663295945</v>
       </c>
       <c r="C10">
-        <v>-0.1357076292828208</v>
+        <v>0.1652696326469893</v>
       </c>
       <c r="D10">
-        <v>0.08786614501606173</v>
+        <v>-0.007486239366376848</v>
       </c>
       <c r="E10">
-        <v>-0.03503478554229671</v>
+        <v>0.02396392357605302</v>
       </c>
       <c r="F10">
-        <v>-0.07318048851038757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06657555922482007</v>
+      </c>
+      <c r="G10">
+        <v>0.02400139945674571</v>
+      </c>
+      <c r="H10">
+        <v>0.03857400200704031</v>
+      </c>
+      <c r="I10">
+        <v>-0.03867165907901991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05584668983521202</v>
+        <v>0.0465019454268422</v>
       </c>
       <c r="C11">
-        <v>0.01473007452129408</v>
+        <v>-0.03313481388491837</v>
       </c>
       <c r="D11">
-        <v>-0.01732155660752314</v>
+        <v>-0.006146142795247733</v>
       </c>
       <c r="E11">
-        <v>-0.005206906159467912</v>
+        <v>-0.008343701593900243</v>
       </c>
       <c r="F11">
-        <v>-0.04868067670772887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.04041457590288238</v>
+      </c>
+      <c r="G11">
+        <v>-0.000569777799883203</v>
+      </c>
+      <c r="H11">
+        <v>0.01250677624878349</v>
+      </c>
+      <c r="I11">
+        <v>-0.0316858982060267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.045132853634592</v>
+        <v>0.04256263393124261</v>
       </c>
       <c r="C12">
-        <v>0.0180384829891639</v>
+        <v>-0.03181468064121391</v>
       </c>
       <c r="D12">
-        <v>-0.01518083986925721</v>
+        <v>0.005284736303882698</v>
       </c>
       <c r="E12">
-        <v>0.01143256484611046</v>
+        <v>-0.008631978799848847</v>
       </c>
       <c r="F12">
-        <v>-0.03331265491922464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01613352849620377</v>
+      </c>
+      <c r="G12">
+        <v>0.002063569301493003</v>
+      </c>
+      <c r="H12">
+        <v>0.004938326812449692</v>
+      </c>
+      <c r="I12">
+        <v>-0.01954024950674297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05625780816483146</v>
+        <v>0.04033838334678774</v>
       </c>
       <c r="C13">
-        <v>0.01540999945496896</v>
+        <v>-0.02624988167986141</v>
       </c>
       <c r="D13">
-        <v>-0.02958584869839771</v>
+        <v>-0.01525714015464065</v>
       </c>
       <c r="E13">
-        <v>-0.02765411134538686</v>
+        <v>-0.009883093822806341</v>
       </c>
       <c r="F13">
-        <v>-0.1124852287824955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1025349886908235</v>
+      </c>
+      <c r="G13">
+        <v>0.03291336305727881</v>
+      </c>
+      <c r="H13">
+        <v>0.03075820603507155</v>
+      </c>
+      <c r="I13">
+        <v>-0.06302281877689463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03267762877734602</v>
+        <v>0.02516736905262544</v>
       </c>
       <c r="C14">
-        <v>0.01256568404902916</v>
+        <v>-0.02384111586468998</v>
       </c>
       <c r="D14">
-        <v>-0.04231346181557619</v>
+        <v>0.005288452320692962</v>
       </c>
       <c r="E14">
-        <v>0.005334236565741645</v>
+        <v>-0.02839054597414866</v>
       </c>
       <c r="F14">
-        <v>-0.02669356967598046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03859050977496748</v>
+      </c>
+      <c r="G14">
+        <v>0.05514380187861606</v>
+      </c>
+      <c r="H14">
+        <v>0.01236320682417635</v>
+      </c>
+      <c r="I14">
+        <v>-0.01456182782048264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04781242850781612</v>
+        <v>0.04048567456805179</v>
       </c>
       <c r="C16">
-        <v>0.02201659837298476</v>
+        <v>-0.03526724766112278</v>
       </c>
       <c r="D16">
-        <v>-0.0139553351390261</v>
+        <v>-0.0007149095536987833</v>
       </c>
       <c r="E16">
-        <v>-0.0007712741322702352</v>
+        <v>-0.005646948243617203</v>
       </c>
       <c r="F16">
-        <v>-0.03781865162018146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03558837980461906</v>
+      </c>
+      <c r="G16">
+        <v>0.006033040468362317</v>
+      </c>
+      <c r="H16">
+        <v>0.00500229450954678</v>
+      </c>
+      <c r="I16">
+        <v>-0.03255077962149793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06355174006518266</v>
+        <v>0.05077586794333558</v>
       </c>
       <c r="C19">
-        <v>0.04114566387059279</v>
+        <v>-0.04708584086798156</v>
       </c>
       <c r="D19">
-        <v>-0.03456353934727458</v>
+        <v>-0.003632651168492694</v>
       </c>
       <c r="E19">
-        <v>-0.0008297232287312937</v>
+        <v>-0.01612802801413834</v>
       </c>
       <c r="F19">
-        <v>-0.1075884066638587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.1033980873753552</v>
+      </c>
+      <c r="G19">
+        <v>0.04490445932252114</v>
+      </c>
+      <c r="H19">
+        <v>0.02173231676732511</v>
+      </c>
+      <c r="I19">
+        <v>-0.07417187229245166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.02985000159713563</v>
+        <v>0.01787782113546113</v>
       </c>
       <c r="C20">
-        <v>0.01939900977734162</v>
+        <v>-0.02886089905179202</v>
       </c>
       <c r="D20">
-        <v>-0.04927316831203513</v>
+        <v>0.005134938832626158</v>
       </c>
       <c r="E20">
-        <v>0.02115090639110392</v>
+        <v>-0.02180053365338286</v>
       </c>
       <c r="F20">
-        <v>-0.07287160795362406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06671604175601402</v>
+      </c>
+      <c r="G20">
+        <v>0.06133879628182336</v>
+      </c>
+      <c r="H20">
+        <v>0.008694144523933776</v>
+      </c>
+      <c r="I20">
+        <v>-0.07231337299358033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03114843181840851</v>
+        <v>0.03206191981533147</v>
       </c>
       <c r="C21">
-        <v>0.03158184555946045</v>
+        <v>-0.02784267428148523</v>
       </c>
       <c r="D21">
-        <v>-0.02618105629873533</v>
+        <v>0.01124874994584434</v>
       </c>
       <c r="E21">
-        <v>-0.004223942135066953</v>
+        <v>-0.005810453063147188</v>
       </c>
       <c r="F21">
-        <v>-0.1044475896059455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07970236909474841</v>
+      </c>
+      <c r="G21">
+        <v>0.008190145145473757</v>
+      </c>
+      <c r="H21">
+        <v>0.05173002568637593</v>
+      </c>
+      <c r="I21">
+        <v>-0.005340297337614633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04733835120084392</v>
+        <v>0.03938610368474291</v>
       </c>
       <c r="C24">
-        <v>0.01726449739309281</v>
+        <v>-0.03101769685034774</v>
       </c>
       <c r="D24">
-        <v>-0.01926644403801389</v>
+        <v>-0.0004027547197812687</v>
       </c>
       <c r="E24">
-        <v>0.003408113093323847</v>
+        <v>-0.00853473529471266</v>
       </c>
       <c r="F24">
-        <v>-0.0479125133816575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03834082066508058</v>
+      </c>
+      <c r="G24">
+        <v>0.001230761869878462</v>
+      </c>
+      <c r="H24">
+        <v>0.007215354209202015</v>
+      </c>
+      <c r="I24">
+        <v>-0.03411472390301584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04877407778392228</v>
+        <v>0.04598135587198586</v>
       </c>
       <c r="C25">
-        <v>0.01390683041547646</v>
+        <v>-0.02756566740095023</v>
       </c>
       <c r="D25">
-        <v>-0.01723083431919656</v>
+        <v>-0.001010245367134468</v>
       </c>
       <c r="E25">
-        <v>0.003091135380127721</v>
+        <v>-0.008274353203313458</v>
       </c>
       <c r="F25">
-        <v>-0.04425896809429916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04533326088662454</v>
+      </c>
+      <c r="G25">
+        <v>-0.004265238235131872</v>
+      </c>
+      <c r="H25">
+        <v>0.012690722420036</v>
+      </c>
+      <c r="I25">
+        <v>-0.02521728345423642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02690777135145113</v>
+        <v>0.01476856061288143</v>
       </c>
       <c r="C26">
-        <v>0.02853233146312536</v>
+        <v>-0.03115543696897647</v>
       </c>
       <c r="D26">
-        <v>-0.03347628981698039</v>
+        <v>-0.004994892111197691</v>
       </c>
       <c r="E26">
-        <v>-0.01806506315422272</v>
+        <v>-0.001535118627518042</v>
       </c>
       <c r="F26">
-        <v>-0.04278472585144442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04867338549675174</v>
+      </c>
+      <c r="G26">
+        <v>0.0283994123424803</v>
+      </c>
+      <c r="H26">
+        <v>0.01163846292675673</v>
+      </c>
+      <c r="I26">
+        <v>-0.03378085074905891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.115110052894576</v>
+        <v>0.06743871092986903</v>
       </c>
       <c r="C27">
-        <v>0.005954718684251376</v>
+        <v>-0.02372119084105487</v>
       </c>
       <c r="D27">
-        <v>-0.04514021995318205</v>
+        <v>0.003286103276395319</v>
       </c>
       <c r="E27">
-        <v>0.02607958819448282</v>
+        <v>-0.03074029436467327</v>
       </c>
       <c r="F27">
-        <v>-0.076416454725827</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06037842495495211</v>
+      </c>
+      <c r="G27">
+        <v>0.02568192396096139</v>
+      </c>
+      <c r="H27">
+        <v>0.02376361040901447</v>
+      </c>
+      <c r="I27">
+        <v>-0.03388312079865154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.0367533809553748</v>
+        <v>0.05698230747407907</v>
       </c>
       <c r="C28">
-        <v>-0.2025710731098463</v>
+        <v>0.25069309247449</v>
       </c>
       <c r="D28">
-        <v>0.1471580111041046</v>
+        <v>-0.002131421265596079</v>
       </c>
       <c r="E28">
-        <v>-0.0336247560611381</v>
+        <v>0.03820455520437774</v>
       </c>
       <c r="F28">
-        <v>-0.04480241258850871</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05314035215467697</v>
+      </c>
+      <c r="G28">
+        <v>0.04573544498166872</v>
+      </c>
+      <c r="H28">
+        <v>0.03775992207449197</v>
+      </c>
+      <c r="I28">
+        <v>-0.06262844679541436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03048536354803108</v>
+        <v>0.02310362049420017</v>
       </c>
       <c r="C29">
-        <v>0.01345141170264628</v>
+        <v>-0.02268580584893385</v>
       </c>
       <c r="D29">
-        <v>-0.04025750717754015</v>
+        <v>0.008519599192338209</v>
       </c>
       <c r="E29">
-        <v>0.01667768258247375</v>
+        <v>-0.03012929386686644</v>
       </c>
       <c r="F29">
-        <v>-0.02604895669218361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03590318714952063</v>
+      </c>
+      <c r="G29">
+        <v>0.05369984491303557</v>
+      </c>
+      <c r="H29">
+        <v>0.01680364207831835</v>
+      </c>
+      <c r="I29">
+        <v>-8.35690982681706e-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1091138186668053</v>
+        <v>0.08604147127016284</v>
       </c>
       <c r="C30">
-        <v>0.00207063903946986</v>
+        <v>-0.05108543162599989</v>
       </c>
       <c r="D30">
-        <v>-0.05816057969113776</v>
+        <v>-0.03908550024702594</v>
       </c>
       <c r="E30">
-        <v>-0.0009882661582825199</v>
+        <v>-0.03481876986104264</v>
       </c>
       <c r="F30">
-        <v>-0.1057433260084334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.105309931345082</v>
+      </c>
+      <c r="G30">
+        <v>0.005454598326793006</v>
+      </c>
+      <c r="H30">
+        <v>-0.008089156962293014</v>
+      </c>
+      <c r="I30">
+        <v>-0.01993531948816138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06788816321969045</v>
+        <v>0.061425409109061</v>
       </c>
       <c r="C31">
-        <v>0.01145391448400237</v>
+        <v>-0.02445091370077931</v>
       </c>
       <c r="D31">
-        <v>-0.03480627947831058</v>
+        <v>-0.01117034302855214</v>
       </c>
       <c r="E31">
-        <v>-0.03515282704292981</v>
+        <v>-0.02230840957383993</v>
       </c>
       <c r="F31">
-        <v>0.02996933296196879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.002844664172179896</v>
+      </c>
+      <c r="G31">
+        <v>0.04693012114390247</v>
+      </c>
+      <c r="H31">
+        <v>0.03648260295860106</v>
+      </c>
+      <c r="I31">
+        <v>-0.009483300126747295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06584309330457457</v>
+        <v>0.03871402332359755</v>
       </c>
       <c r="C32">
-        <v>0.02686086481623228</v>
+        <v>-0.04458660669619236</v>
       </c>
       <c r="D32">
-        <v>-0.04357345028820169</v>
+        <v>0.01577321997757309</v>
       </c>
       <c r="E32">
-        <v>0.0163833651754822</v>
+        <v>-0.03315812787211662</v>
       </c>
       <c r="F32">
-        <v>-0.09856462561362367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08340556701181585</v>
+      </c>
+      <c r="G32">
+        <v>0.0325373012593725</v>
+      </c>
+      <c r="H32">
+        <v>0.0252972752177627</v>
+      </c>
+      <c r="I32">
+        <v>-0.05507855169740327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06387616173104742</v>
+        <v>0.05142812542691256</v>
       </c>
       <c r="C33">
-        <v>0.04626951308300163</v>
+        <v>-0.05475040920835503</v>
       </c>
       <c r="D33">
-        <v>-0.05357467245407528</v>
+        <v>-0.01981455317132723</v>
       </c>
       <c r="E33">
-        <v>-0.009751847689299698</v>
+        <v>-0.007169007981388066</v>
       </c>
       <c r="F33">
-        <v>-0.07871169066864747</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07963915307937687</v>
+      </c>
+      <c r="G33">
+        <v>0.03827407386259277</v>
+      </c>
+      <c r="H33">
+        <v>0.0357349469921832</v>
+      </c>
+      <c r="I33">
+        <v>-0.03846489974013392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04775162580988836</v>
+        <v>0.04126048156428792</v>
       </c>
       <c r="C34">
-        <v>0.01553574034587851</v>
+        <v>-0.03585880829952574</v>
       </c>
       <c r="D34">
-        <v>-0.02422829827189726</v>
+        <v>0.004179944137324393</v>
       </c>
       <c r="E34">
-        <v>0.004042637308170812</v>
+        <v>-0.016361064839379</v>
       </c>
       <c r="F34">
-        <v>-0.03498730252099219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03708166078252534</v>
+      </c>
+      <c r="G34">
+        <v>9.439945677616817e-05</v>
+      </c>
+      <c r="H34">
+        <v>0.008629649834720119</v>
+      </c>
+      <c r="I34">
+        <v>-0.02810718118947082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01948260868641851</v>
+        <v>0.01662582891845874</v>
       </c>
       <c r="C36">
-        <v>0.001439042187218172</v>
+        <v>-0.006495516788246134</v>
       </c>
       <c r="D36">
-        <v>-0.01463302156041936</v>
+        <v>0.003379164455015182</v>
       </c>
       <c r="E36">
-        <v>0.003893753762827028</v>
+        <v>-0.01074517272707425</v>
       </c>
       <c r="F36">
-        <v>-0.02120282920683442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02671459649526955</v>
+      </c>
+      <c r="G36">
+        <v>0.03402754133654242</v>
+      </c>
+      <c r="H36">
+        <v>0.02255355217780687</v>
+      </c>
+      <c r="I36">
+        <v>0.01058645861464411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04309747541210207</v>
+        <v>0.03524282877522265</v>
       </c>
       <c r="C38">
-        <v>0.006442942387066411</v>
+        <v>-0.01555071369564156</v>
       </c>
       <c r="D38">
-        <v>-0.01865613746346334</v>
+        <v>0.003324947361672949</v>
       </c>
       <c r="E38">
-        <v>0.01791372173133484</v>
+        <v>-0.008214794633756127</v>
       </c>
       <c r="F38">
-        <v>-0.0273757975832932</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.05220946585712943</v>
+      </c>
+      <c r="G38">
+        <v>0.01993685896449598</v>
+      </c>
+      <c r="H38">
+        <v>0.02867831165562156</v>
+      </c>
+      <c r="I38">
+        <v>0.008556344721244514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06888474272698256</v>
+        <v>0.05161781372168672</v>
       </c>
       <c r="C39">
-        <v>0.0148123388838811</v>
+        <v>-0.04870821618535244</v>
       </c>
       <c r="D39">
-        <v>-0.02640108695011761</v>
+        <v>-0.005604859085775864</v>
       </c>
       <c r="E39">
-        <v>-0.01267206548576622</v>
+        <v>-0.01847174728472181</v>
       </c>
       <c r="F39">
-        <v>-0.04331024201113901</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05851813166481807</v>
+      </c>
+      <c r="G39">
+        <v>-0.009623805595299097</v>
+      </c>
+      <c r="H39">
+        <v>0.02230527955809848</v>
+      </c>
+      <c r="I39">
+        <v>-0.01200804574736756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07066606261981066</v>
+        <v>0.05325543020008947</v>
       </c>
       <c r="C40">
-        <v>0.004720294557876317</v>
+        <v>-0.04239087003840887</v>
       </c>
       <c r="D40">
-        <v>-0.06195025527022067</v>
+        <v>-0.02179114559448326</v>
       </c>
       <c r="E40">
-        <v>-0.03207607659196929</v>
+        <v>-0.02532993683284309</v>
       </c>
       <c r="F40">
-        <v>-0.1112476295070862</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09433769442933292</v>
+      </c>
+      <c r="G40">
+        <v>0.03436513318569402</v>
+      </c>
+      <c r="H40">
+        <v>0.03008966362015337</v>
+      </c>
+      <c r="I40">
+        <v>-0.1124708749408459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003088303804245327</v>
+        <v>0.005030115860053172</v>
       </c>
       <c r="C41">
-        <v>0.01685575115145019</v>
+        <v>-0.01192544465986591</v>
       </c>
       <c r="D41">
-        <v>-0.0348057198387331</v>
+        <v>-0.0009078262311928507</v>
       </c>
       <c r="E41">
-        <v>0.006168198312973236</v>
+        <v>-0.01185487062073841</v>
       </c>
       <c r="F41">
-        <v>0.004259818905276871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01163368657689411</v>
+      </c>
+      <c r="G41">
+        <v>0.04762118436756808</v>
+      </c>
+      <c r="H41">
+        <v>0.03868679527348393</v>
+      </c>
+      <c r="I41">
+        <v>-0.008080328132305069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1862880303439148</v>
+        <v>0.2066183484279898</v>
       </c>
       <c r="C42">
-        <v>0.6475983200834795</v>
+        <v>-0.2189302442888667</v>
       </c>
       <c r="D42">
-        <v>0.6514714915869091</v>
+        <v>-0.05215030960717162</v>
       </c>
       <c r="E42">
-        <v>-0.2636037038384166</v>
+        <v>0.9221817461427418</v>
       </c>
       <c r="F42">
-        <v>0.03609073928608212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1487527783212049</v>
+      </c>
+      <c r="G42">
+        <v>-0.006699764463644886</v>
+      </c>
+      <c r="H42">
+        <v>-4.878274024128561e-05</v>
+      </c>
+      <c r="I42">
+        <v>-0.0613612403087751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005631888113052525</v>
+        <v>0.008227104845204019</v>
       </c>
       <c r="C43">
-        <v>0.01969497480427741</v>
+        <v>-0.01351300080896645</v>
       </c>
       <c r="D43">
-        <v>-0.03541470467796232</v>
+        <v>-0.003419809343574007</v>
       </c>
       <c r="E43">
-        <v>0.001969182096263187</v>
+        <v>-0.01060321602748597</v>
       </c>
       <c r="F43">
-        <v>-0.02843081054742002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02587089950743614</v>
+      </c>
+      <c r="G43">
+        <v>0.03584620489610118</v>
+      </c>
+      <c r="H43">
+        <v>0.02237693558157658</v>
+      </c>
+      <c r="I43">
+        <v>-0.01842548458920108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0411801487961574</v>
+        <v>0.02630229434458267</v>
       </c>
       <c r="C44">
-        <v>0.03314202669795187</v>
+        <v>-0.04077217969682329</v>
       </c>
       <c r="D44">
-        <v>-0.05246089725592739</v>
+        <v>0.001187266986642249</v>
       </c>
       <c r="E44">
-        <v>-0.00242805666459256</v>
+        <v>-0.01417499397619759</v>
       </c>
       <c r="F44">
-        <v>-0.1242380124473505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1218473050173478</v>
+      </c>
+      <c r="G44">
+        <v>0.08558992392094543</v>
+      </c>
+      <c r="H44">
+        <v>0.05219355962811853</v>
+      </c>
+      <c r="I44">
+        <v>-0.05467992592999126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03420240737310945</v>
+        <v>0.02629401315194367</v>
       </c>
       <c r="C46">
-        <v>0.02111873297973503</v>
+        <v>-0.03820204061302376</v>
       </c>
       <c r="D46">
-        <v>-0.04346026600278614</v>
+        <v>-0.004626184423773877</v>
       </c>
       <c r="E46">
-        <v>-8.467097723033458e-05</v>
+        <v>-0.03086740595034606</v>
       </c>
       <c r="F46">
-        <v>-0.0249964666102577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.05102678059398525</v>
+      </c>
+      <c r="G46">
+        <v>0.05173172183972351</v>
+      </c>
+      <c r="H46">
+        <v>0.01950855751612457</v>
+      </c>
+      <c r="I46">
+        <v>-0.00829909540151603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09329850742763136</v>
+        <v>0.08703799347732656</v>
       </c>
       <c r="C47">
-        <v>0.009640320263851516</v>
+        <v>-0.02509430034178665</v>
       </c>
       <c r="D47">
-        <v>-0.03561814062201334</v>
+        <v>-0.005295732503987721</v>
       </c>
       <c r="E47">
-        <v>0.001729920488987676</v>
+        <v>-0.02660643875297761</v>
       </c>
       <c r="F47">
-        <v>0.01963545575394894</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01573759801420841</v>
+      </c>
+      <c r="G47">
+        <v>0.06662903010449331</v>
+      </c>
+      <c r="H47">
+        <v>0.02816529403151907</v>
+      </c>
+      <c r="I47">
+        <v>-0.02929339017810144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02081935883326165</v>
+        <v>0.02109851775366812</v>
       </c>
       <c r="C48">
-        <v>0.01319162226010729</v>
+        <v>-0.01898873041292229</v>
       </c>
       <c r="D48">
-        <v>-0.03150669534991043</v>
+        <v>0.0005261875304163952</v>
       </c>
       <c r="E48">
-        <v>0.001422035909683526</v>
+        <v>-0.01461271744532173</v>
       </c>
       <c r="F48">
-        <v>-0.02852945668646069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02915167634966195</v>
+      </c>
+      <c r="G48">
+        <v>0.0223908726746308</v>
+      </c>
+      <c r="H48">
+        <v>0.01676010845349118</v>
+      </c>
+      <c r="I48">
+        <v>-0.009208958713698867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09134244550954</v>
+        <v>0.08773262592370332</v>
       </c>
       <c r="C50">
-        <v>0.02586455325004073</v>
+        <v>-0.04515922325591271</v>
       </c>
       <c r="D50">
-        <v>-0.04197020071567296</v>
+        <v>0.008661328359962816</v>
       </c>
       <c r="E50">
-        <v>-0.008157004509162642</v>
+        <v>-0.02254514358284646</v>
       </c>
       <c r="F50">
-        <v>0.02538814117734583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.008581705346924396</v>
+      </c>
+      <c r="G50">
+        <v>0.03908433078739529</v>
+      </c>
+      <c r="H50">
+        <v>-0.008168212422192398</v>
+      </c>
+      <c r="I50">
+        <v>0.006446778431183521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05534072350436705</v>
+        <v>0.03861833621634252</v>
       </c>
       <c r="C51">
-        <v>-0.0188484130395681</v>
+        <v>0.006583967689230879</v>
       </c>
       <c r="D51">
-        <v>-0.02049520713152742</v>
+        <v>-0.01132459562116742</v>
       </c>
       <c r="E51">
-        <v>-0.03195698329510479</v>
+        <v>-0.01317678655179748</v>
       </c>
       <c r="F51">
-        <v>-0.05964990192023274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08809573493170803</v>
+      </c>
+      <c r="G51">
+        <v>0.06150913378880007</v>
+      </c>
+      <c r="H51">
+        <v>0.05338708301400612</v>
+      </c>
+      <c r="I51">
+        <v>-0.03277999387326121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1328652706488175</v>
+        <v>0.1230929088894307</v>
       </c>
       <c r="C53">
-        <v>0.004884676258828799</v>
+        <v>-0.04414106305941998</v>
       </c>
       <c r="D53">
-        <v>-0.06246295207903233</v>
+        <v>-0.006599680999513034</v>
       </c>
       <c r="E53">
-        <v>-0.006564831019195683</v>
+        <v>-0.05096787134153826</v>
       </c>
       <c r="F53">
-        <v>0.05966246457794313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04775930158073412</v>
+      </c>
+      <c r="G53">
+        <v>0.0194826776038103</v>
+      </c>
+      <c r="H53">
+        <v>0.02551845110354519</v>
+      </c>
+      <c r="I53">
+        <v>-0.03818449373219892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02679164205953261</v>
+        <v>0.02626143237344484</v>
       </c>
       <c r="C54">
-        <v>-0.001778439643297546</v>
+        <v>-0.00892347399409594</v>
       </c>
       <c r="D54">
-        <v>-0.03492313276894309</v>
+        <v>0.004380151759647483</v>
       </c>
       <c r="E54">
-        <v>0.009535593106176994</v>
+        <v>-0.03091897926563415</v>
       </c>
       <c r="F54">
-        <v>-0.03760688071288405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03630546656411671</v>
+      </c>
+      <c r="G54">
+        <v>0.05205525492308555</v>
+      </c>
+      <c r="H54">
+        <v>0.0305813870185146</v>
+      </c>
+      <c r="I54">
+        <v>-0.0001624016340652223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1057712670062066</v>
+        <v>0.0969751072753111</v>
       </c>
       <c r="C55">
-        <v>-0.004171730498136946</v>
+        <v>-0.03700248962233346</v>
       </c>
       <c r="D55">
-        <v>-0.02790234348862342</v>
+        <v>0.01146852011244773</v>
       </c>
       <c r="E55">
-        <v>0.03946295254186948</v>
+        <v>-0.03544143105918603</v>
       </c>
       <c r="F55">
-        <v>0.02793206960962695</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0385420936620199</v>
+      </c>
+      <c r="G55">
+        <v>0.03445108584698334</v>
+      </c>
+      <c r="H55">
+        <v>-0.01243599949593859</v>
+      </c>
+      <c r="I55">
+        <v>-0.01435181034634096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.170408790742439</v>
+        <v>0.1649246723035553</v>
       </c>
       <c r="C56">
-        <v>-0.04534266409570014</v>
+        <v>-0.03277993045091677</v>
       </c>
       <c r="D56">
-        <v>-0.07392318459854628</v>
+        <v>-0.003493373674253399</v>
       </c>
       <c r="E56">
-        <v>0.02540379782680189</v>
+        <v>-0.08507390859036947</v>
       </c>
       <c r="F56">
-        <v>0.1036394434132795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09159756681752468</v>
+      </c>
+      <c r="G56">
+        <v>-0.02440446649562741</v>
+      </c>
+      <c r="H56">
+        <v>-0.01296672829700326</v>
+      </c>
+      <c r="I56">
+        <v>-0.03931940385184727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.07427103335325816</v>
+        <v>0.0602279563810787</v>
       </c>
       <c r="C57">
-        <v>0.01234530757756212</v>
+        <v>-0.02716795618015758</v>
       </c>
       <c r="D57">
-        <v>-0.04003316689269559</v>
+        <v>-0.02108765034321481</v>
       </c>
       <c r="E57">
-        <v>-0.02831777383423319</v>
+        <v>-0.005423511420323666</v>
       </c>
       <c r="F57">
-        <v>-0.05675560378282134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.07085833708826816</v>
+      </c>
+      <c r="G57">
+        <v>0.01637802978335881</v>
+      </c>
+      <c r="H57">
+        <v>0.01553978971842082</v>
+      </c>
+      <c r="I57">
+        <v>-0.02295653847360134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2059372712234408</v>
+        <v>0.2056769878220308</v>
       </c>
       <c r="C58">
-        <v>0.05963745808483212</v>
+        <v>-0.1175643224743889</v>
       </c>
       <c r="D58">
-        <v>-0.06092364113531379</v>
+        <v>-0.09642154951274855</v>
       </c>
       <c r="E58">
-        <v>-0.0512464740726564</v>
+        <v>0.03590581418766526</v>
       </c>
       <c r="F58">
-        <v>-0.1732044973939429</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3237300100293998</v>
+      </c>
+      <c r="G58">
+        <v>0.3203154101920392</v>
+      </c>
+      <c r="H58">
+        <v>-0.3241980265839987</v>
+      </c>
+      <c r="I58">
+        <v>0.7209306149113667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.03347795711843128</v>
+        <v>0.05656201631591618</v>
       </c>
       <c r="C59">
-        <v>-0.1755580682939291</v>
+        <v>0.2063831491925836</v>
       </c>
       <c r="D59">
-        <v>0.09564462970146731</v>
+        <v>-0.01785636691533177</v>
       </c>
       <c r="E59">
-        <v>-0.02467236146536414</v>
+        <v>0.007292543898748331</v>
       </c>
       <c r="F59">
-        <v>-0.05138224066372246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06680217042480349</v>
+      </c>
+      <c r="G59">
+        <v>-0.006715000131441878</v>
+      </c>
+      <c r="H59">
+        <v>0.01561332305653429</v>
+      </c>
+      <c r="I59">
+        <v>-0.01183432381591344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1778229972807822</v>
+        <v>0.1894457266873025</v>
       </c>
       <c r="C60">
-        <v>-0.08739687787766207</v>
+        <v>0.05669864618987946</v>
       </c>
       <c r="D60">
-        <v>-0.001045240472042114</v>
+        <v>-0.04902616696952874</v>
       </c>
       <c r="E60">
-        <v>-0.06668988707137884</v>
+        <v>-0.01583584470289465</v>
       </c>
       <c r="F60">
-        <v>-0.1551234706300867</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1823197951411998</v>
+      </c>
+      <c r="G60">
+        <v>-0.3515917174431626</v>
+      </c>
+      <c r="H60">
+        <v>0.01226367156778753</v>
+      </c>
+      <c r="I60">
+        <v>-0.007370160020568696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03947986735267636</v>
+        <v>0.03805921214290228</v>
       </c>
       <c r="C61">
-        <v>0.01218787410510227</v>
+        <v>-0.03390798561759062</v>
       </c>
       <c r="D61">
-        <v>-0.01373948711445308</v>
+        <v>0.00155547781006246</v>
       </c>
       <c r="E61">
-        <v>0.005363345152476122</v>
+        <v>-0.01144377407642125</v>
       </c>
       <c r="F61">
-        <v>-0.03857642127812495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03859987871496093</v>
+      </c>
+      <c r="G61">
+        <v>-0.01311967274808624</v>
+      </c>
+      <c r="H61">
+        <v>0.01162216916695752</v>
+      </c>
+      <c r="I61">
+        <v>-0.0004638618819991439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.03744172336329731</v>
+        <v>0.02891868240030231</v>
       </c>
       <c r="C63">
-        <v>0.007415151369716985</v>
+        <v>-0.02474792801434481</v>
       </c>
       <c r="D63">
-        <v>-0.02960356728809613</v>
+        <v>-0.0009401768982502095</v>
       </c>
       <c r="E63">
-        <v>-0.002340533851951507</v>
+        <v>-0.01731147889184648</v>
       </c>
       <c r="F63">
-        <v>-0.04842173237250909</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0343197701796477</v>
+      </c>
+      <c r="G63">
+        <v>0.04765644353033117</v>
+      </c>
+      <c r="H63">
+        <v>0.002252172337475657</v>
+      </c>
+      <c r="I63">
+        <v>-0.03012984268917625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05946757837367289</v>
+        <v>0.05579730087942658</v>
       </c>
       <c r="C64">
-        <v>0.02326723658483675</v>
+        <v>-0.0365684930630417</v>
       </c>
       <c r="D64">
-        <v>-0.03466906606395839</v>
+        <v>0.01003707513224446</v>
       </c>
       <c r="E64">
-        <v>0.03098586180201582</v>
+        <v>-0.01968532435773265</v>
       </c>
       <c r="F64">
-        <v>-0.04049602823429888</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0418737399636185</v>
+      </c>
+      <c r="G64">
+        <v>0.02654980457779985</v>
+      </c>
+      <c r="H64">
+        <v>0.05803214530650738</v>
+      </c>
+      <c r="I64">
+        <v>-0.03910872354349704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02841409140159361</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01175705143262619</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.004400040523973566</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00657744983541772</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003814693764979842</v>
+      </c>
+      <c r="G65">
+        <v>-0.02664924138585123</v>
+      </c>
+      <c r="H65">
+        <v>-0.01603023442137614</v>
+      </c>
+      <c r="I65">
+        <v>-0.002228887780912858</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07412739789186783</v>
+        <v>0.06401226865738412</v>
       </c>
       <c r="C66">
-        <v>0.01795184908724115</v>
+        <v>-0.0588410671835178</v>
       </c>
       <c r="D66">
-        <v>-0.05592088349835431</v>
+        <v>-0.01323932213570442</v>
       </c>
       <c r="E66">
-        <v>0.003116775351435769</v>
+        <v>-0.04427737761178167</v>
       </c>
       <c r="F66">
-        <v>-0.07943520950376297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07035767189946673</v>
+      </c>
+      <c r="G66">
+        <v>-0.01352197036842521</v>
+      </c>
+      <c r="H66">
+        <v>0.00745074521520158</v>
+      </c>
+      <c r="I66">
+        <v>-0.05344954274120447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05269117606012805</v>
+        <v>0.04870048203495905</v>
       </c>
       <c r="C67">
-        <v>-0.01352789590823767</v>
+        <v>0.00313790260921523</v>
       </c>
       <c r="D67">
-        <v>-0.0002633415540449851</v>
+        <v>-0.002157675982393853</v>
       </c>
       <c r="E67">
-        <v>0.005311787653389688</v>
+        <v>-0.007180966886971135</v>
       </c>
       <c r="F67">
-        <v>-0.02353305374851377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03838726705455044</v>
+      </c>
+      <c r="G67">
+        <v>-0.002813125941888556</v>
+      </c>
+      <c r="H67">
+        <v>0.04239965502717125</v>
+      </c>
+      <c r="I67">
+        <v>0.02178991151584158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.05423677498702532</v>
+        <v>0.06581006438432895</v>
       </c>
       <c r="C68">
-        <v>-0.2047860448484433</v>
+        <v>0.2419708568081522</v>
       </c>
       <c r="D68">
-        <v>0.1436195618689141</v>
+        <v>-0.01569900756301825</v>
       </c>
       <c r="E68">
-        <v>-0.03285689239282143</v>
+        <v>0.02601708903980773</v>
       </c>
       <c r="F68">
-        <v>-0.04608670783509363</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0432290224393894</v>
+      </c>
+      <c r="G68">
+        <v>0.02679813735876201</v>
+      </c>
+      <c r="H68">
+        <v>-0.008206783934614508</v>
+      </c>
+      <c r="I68">
+        <v>-0.01862248463478509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0757218581751969</v>
+        <v>0.06974644825129667</v>
       </c>
       <c r="C69">
-        <v>-0.002477282353165626</v>
+        <v>-0.0221910430844572</v>
       </c>
       <c r="D69">
-        <v>-0.02961054675553677</v>
+        <v>-0.006871048714374246</v>
       </c>
       <c r="E69">
-        <v>-0.0005234093901851034</v>
+        <v>-0.02981110515681574</v>
       </c>
       <c r="F69">
-        <v>0.007029949554547618</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0004231185108654308</v>
+      </c>
+      <c r="G69">
+        <v>0.03918899492197959</v>
+      </c>
+      <c r="H69">
+        <v>0.01958455702918966</v>
+      </c>
+      <c r="I69">
+        <v>-0.01560816446475762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.05268725058230381</v>
+        <v>0.06304043198577437</v>
       </c>
       <c r="C71">
-        <v>-0.2521322722243587</v>
+        <v>0.2658725029808382</v>
       </c>
       <c r="D71">
-        <v>0.1654205742343343</v>
+        <v>-0.01907674311172662</v>
       </c>
       <c r="E71">
-        <v>-0.06702978350940691</v>
+        <v>0.03971128337993896</v>
       </c>
       <c r="F71">
-        <v>-0.06644181741344748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06219796641682332</v>
+      </c>
+      <c r="G71">
+        <v>0.03558214033628197</v>
+      </c>
+      <c r="H71">
+        <v>0.0171182472590975</v>
+      </c>
+      <c r="I71">
+        <v>-0.02656131957793591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1325212749125449</v>
+        <v>0.1326681529594704</v>
       </c>
       <c r="C72">
-        <v>-0.03899643262466092</v>
+        <v>-0.03846393174948604</v>
       </c>
       <c r="D72">
-        <v>-0.05025983978171401</v>
+        <v>-0.009669610695494386</v>
       </c>
       <c r="E72">
-        <v>0.0005880841475800452</v>
+        <v>-0.07467269909522638</v>
       </c>
       <c r="F72">
-        <v>-0.07808243592201773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07884864798263584</v>
+      </c>
+      <c r="G72">
+        <v>-0.08230653677164658</v>
+      </c>
+      <c r="H72">
+        <v>-0.01951496038413172</v>
+      </c>
+      <c r="I72">
+        <v>0.1351158906115113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2668384081928935</v>
+        <v>0.2671874344362337</v>
       </c>
       <c r="C73">
-        <v>-0.1330859883795779</v>
+        <v>0.08309277750961627</v>
       </c>
       <c r="D73">
-        <v>0.07208577863986194</v>
+        <v>-0.08676803680051046</v>
       </c>
       <c r="E73">
-        <v>-0.1008292657013059</v>
+        <v>0.03121472606928771</v>
       </c>
       <c r="F73">
-        <v>-0.2575660681485866</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2613578119778495</v>
+      </c>
+      <c r="G73">
+        <v>-0.5413762907712699</v>
+      </c>
+      <c r="H73">
+        <v>-0.03344023565811481</v>
+      </c>
+      <c r="I73">
+        <v>0.05757863023979878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1517635934888014</v>
+        <v>0.1486794454085769</v>
       </c>
       <c r="C74">
-        <v>0.0006956256482260716</v>
+        <v>-0.04328225503051544</v>
       </c>
       <c r="D74">
-        <v>-0.04162713630156506</v>
+        <v>-0.01184732443983767</v>
       </c>
       <c r="E74">
-        <v>-0.004045368039206298</v>
+        <v>-0.04769144816386137</v>
       </c>
       <c r="F74">
-        <v>0.04686254072555612</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06873574822838237</v>
+      </c>
+      <c r="G74">
+        <v>-0.02172729201972136</v>
+      </c>
+      <c r="H74">
+        <v>-0.01849668036150847</v>
+      </c>
+      <c r="I74">
+        <v>-0.08383030653741648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2312292611852025</v>
+        <v>0.2509280316113222</v>
       </c>
       <c r="C75">
-        <v>-0.03262961353542685</v>
+        <v>-0.04114344276318914</v>
       </c>
       <c r="D75">
-        <v>-0.09072615618693267</v>
+        <v>-0.0307497179123027</v>
       </c>
       <c r="E75">
-        <v>-0.01173881287372202</v>
+        <v>-0.1118943458281954</v>
       </c>
       <c r="F75">
-        <v>0.1384594737413425</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1428926327871586</v>
+      </c>
+      <c r="G75">
+        <v>-0.006772714091671572</v>
+      </c>
+      <c r="H75">
+        <v>0.01623877954397591</v>
+      </c>
+      <c r="I75">
+        <v>-0.03823975444350878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2554466131692835</v>
+        <v>0.2633445445924394</v>
       </c>
       <c r="C76">
-        <v>-0.06672184656647712</v>
+        <v>-0.03195113571824518</v>
       </c>
       <c r="D76">
-        <v>-0.08012156576256288</v>
+        <v>0.007541439454846837</v>
       </c>
       <c r="E76">
-        <v>0.05583692211409254</v>
+        <v>-0.1327159872038707</v>
       </c>
       <c r="F76">
-        <v>0.1424248538685417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1878791905099115</v>
+      </c>
+      <c r="G76">
+        <v>-0.006091532523405174</v>
+      </c>
+      <c r="H76">
+        <v>-0.07151016163996785</v>
+      </c>
+      <c r="I76">
+        <v>-0.04656198637289873</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1352480778569531</v>
+        <v>0.1138167971915661</v>
       </c>
       <c r="C77">
-        <v>0.06286448735368196</v>
+        <v>-0.07224141125348445</v>
       </c>
       <c r="D77">
-        <v>-0.01488904919034643</v>
+        <v>-0.009946322172227601</v>
       </c>
       <c r="E77">
-        <v>-0.01279050828217251</v>
+        <v>0.04530466047426662</v>
       </c>
       <c r="F77">
-        <v>-0.1796775744631488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1772377620667535</v>
+      </c>
+      <c r="G77">
+        <v>0.2120884359378827</v>
+      </c>
+      <c r="H77">
+        <v>-0.02265126207450542</v>
+      </c>
+      <c r="I77">
+        <v>-0.2341692142628015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08743914683034634</v>
+        <v>0.06624049538895296</v>
       </c>
       <c r="C78">
-        <v>0.05756909986349758</v>
+        <v>-0.06907440166896739</v>
       </c>
       <c r="D78">
-        <v>-0.04572966866899575</v>
+        <v>0.001372322323432941</v>
       </c>
       <c r="E78">
-        <v>0.007539736685356258</v>
+        <v>-0.01217275215308473</v>
       </c>
       <c r="F78">
-        <v>-0.05841508246716838</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07948720755015835</v>
+      </c>
+      <c r="G78">
+        <v>0.01721451641675733</v>
+      </c>
+      <c r="H78">
+        <v>0.01994286805713915</v>
+      </c>
+      <c r="I78">
+        <v>-0.03378100600807449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.111934773496224</v>
+        <v>0.1443304501093864</v>
       </c>
       <c r="C80">
-        <v>0.06691354820336871</v>
+        <v>0.03613852144177902</v>
       </c>
       <c r="D80">
-        <v>0.2955551984975154</v>
+        <v>0.9753474967044437</v>
       </c>
       <c r="E80">
-        <v>0.9238760589648339</v>
+        <v>0.05065751808232113</v>
       </c>
       <c r="F80">
-        <v>-0.04931546904906148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04450204771649182</v>
+      </c>
+      <c r="G80">
+        <v>-0.03758931000837194</v>
+      </c>
+      <c r="H80">
+        <v>0.03281889995585429</v>
+      </c>
+      <c r="I80">
+        <v>0.09190197407284466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1538778103995964</v>
+        <v>0.1823357681151241</v>
       </c>
       <c r="C81">
-        <v>-0.02799672679263449</v>
+        <v>-0.02241986664913822</v>
       </c>
       <c r="D81">
-        <v>-0.05061918610147049</v>
+        <v>-0.007709541034639594</v>
       </c>
       <c r="E81">
-        <v>0.01195147398763144</v>
+        <v>-0.08882965554259266</v>
       </c>
       <c r="F81">
-        <v>0.1778569464969563</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1589101083976474</v>
+      </c>
+      <c r="G81">
+        <v>0.02185793393074215</v>
+      </c>
+      <c r="H81">
+        <v>-0.02898847240814425</v>
+      </c>
+      <c r="I81">
+        <v>0.002665996520951854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.08311647019496916</v>
+        <v>0.06386159672986715</v>
       </c>
       <c r="C83">
-        <v>0.08607929222489315</v>
+        <v>-0.05322247219363515</v>
       </c>
       <c r="D83">
-        <v>-0.02120586546643177</v>
+        <v>-0.01111332902239553</v>
       </c>
       <c r="E83">
-        <v>-0.02085391260049971</v>
+        <v>0.02126443987329796</v>
       </c>
       <c r="F83">
-        <v>-0.02086027737738303</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04678010959849375</v>
+      </c>
+      <c r="G83">
+        <v>0.04204017419468156</v>
+      </c>
+      <c r="H83">
+        <v>0.0564040509000158</v>
+      </c>
+      <c r="I83">
+        <v>-0.04121150618186616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2444840108154591</v>
+        <v>0.2525583581757373</v>
       </c>
       <c r="C85">
-        <v>0.0100003665678253</v>
+        <v>-0.07345643610911783</v>
       </c>
       <c r="D85">
-        <v>-0.09354359111964927</v>
+        <v>-0.01224361091467849</v>
       </c>
       <c r="E85">
-        <v>0.05074342633106207</v>
+        <v>-0.1064677198078219</v>
       </c>
       <c r="F85">
-        <v>0.152654301056053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1824328284598595</v>
+      </c>
+      <c r="G85">
+        <v>0.03744350970684657</v>
+      </c>
+      <c r="H85">
+        <v>-0.02270673150113808</v>
+      </c>
+      <c r="I85">
+        <v>-0.06885790053288073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04007085316880122</v>
+        <v>0.02761849156359011</v>
       </c>
       <c r="C86">
-        <v>0.0401106789569607</v>
+        <v>-0.05283972902357163</v>
       </c>
       <c r="D86">
-        <v>-0.0470317826980965</v>
+        <v>-0.003812452833710543</v>
       </c>
       <c r="E86">
-        <v>-0.006176878496874003</v>
+        <v>-0.01232068369542413</v>
       </c>
       <c r="F86">
-        <v>-0.07839509861744023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08202191172706466</v>
+      </c>
+      <c r="G86">
+        <v>0.05762125554649102</v>
+      </c>
+      <c r="H86">
+        <v>0.01035035727043244</v>
+      </c>
+      <c r="I86">
+        <v>-0.0554966999311194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02057738183815246</v>
+        <v>0.02610988410558759</v>
       </c>
       <c r="C87">
-        <v>-0.0342440818808881</v>
+        <v>0.007571366655200689</v>
       </c>
       <c r="D87">
-        <v>0.02067080673675258</v>
+        <v>0.003719215475169267</v>
       </c>
       <c r="E87">
-        <v>-0.004244692965586928</v>
+        <v>0.001201908322522093</v>
       </c>
       <c r="F87">
-        <v>-0.09496733989707834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.109075658904959</v>
+      </c>
+      <c r="G87">
+        <v>0.01748208937147397</v>
+      </c>
+      <c r="H87">
+        <v>-0.01567688550434335</v>
+      </c>
+      <c r="I87">
+        <v>-0.03692455621809258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02866415773219309</v>
+        <v>0.03494470749706485</v>
       </c>
       <c r="C88">
-        <v>0.01452473666757309</v>
+        <v>-0.008950092582945801</v>
       </c>
       <c r="D88">
-        <v>-0.02014912154620132</v>
+        <v>0.004622225826486069</v>
       </c>
       <c r="E88">
-        <v>0.02259467815505474</v>
+        <v>-0.009931996210703068</v>
       </c>
       <c r="F88">
-        <v>0.01684313567698626</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01447306064472065</v>
+      </c>
+      <c r="G88">
+        <v>0.03028008040879843</v>
+      </c>
+      <c r="H88">
+        <v>0.04803402937933065</v>
+      </c>
+      <c r="I88">
+        <v>-0.00125010664796649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07516539007468738</v>
+        <v>0.1035905164118262</v>
       </c>
       <c r="C89">
-        <v>-0.2743166717397782</v>
+        <v>0.381956561548276</v>
       </c>
       <c r="D89">
-        <v>0.2400845161574429</v>
+        <v>-0.04626565947949874</v>
       </c>
       <c r="E89">
-        <v>-0.09198598757864046</v>
+        <v>0.05452705879621958</v>
       </c>
       <c r="F89">
-        <v>-0.03052712310476031</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0398946912553195</v>
+      </c>
+      <c r="G89">
+        <v>0.09312811854595202</v>
+      </c>
+      <c r="H89">
+        <v>0.03481530882154277</v>
+      </c>
+      <c r="I89">
+        <v>-0.06720704557892296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.05375419297869921</v>
+        <v>0.0655011867927574</v>
       </c>
       <c r="C90">
-        <v>-0.2531874287706247</v>
+        <v>0.3408787097109434</v>
       </c>
       <c r="D90">
-        <v>0.2205152888554613</v>
+        <v>-0.02076265992211043</v>
       </c>
       <c r="E90">
-        <v>-0.02889019996444209</v>
+        <v>0.05192306485587433</v>
       </c>
       <c r="F90">
-        <v>-0.04384254222445337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01911066810716524</v>
+      </c>
+      <c r="G90">
+        <v>0.07814117290775638</v>
+      </c>
+      <c r="H90">
+        <v>0.01564646509674823</v>
+      </c>
+      <c r="I90">
+        <v>-0.03364005678935472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2817788108498738</v>
+        <v>0.2895008761306488</v>
       </c>
       <c r="C91">
-        <v>0.01458600115027746</v>
+        <v>-0.08300580547510127</v>
       </c>
       <c r="D91">
-        <v>-0.0968744232403821</v>
+        <v>-0.01919220167089703</v>
       </c>
       <c r="E91">
-        <v>0.03343113076689781</v>
+        <v>-0.1006586560819924</v>
       </c>
       <c r="F91">
-        <v>0.2682315083274916</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2655202743010338</v>
+      </c>
+      <c r="G91">
+        <v>0.01534481435314509</v>
+      </c>
+      <c r="H91">
+        <v>-0.05721974112417436</v>
+      </c>
+      <c r="I91">
+        <v>-0.05933778271755557</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.09771792519926628</v>
+        <v>0.1475968218478841</v>
       </c>
       <c r="C92">
-        <v>-0.217461091305579</v>
+        <v>0.3628431700610347</v>
       </c>
       <c r="D92">
-        <v>0.2835444661061765</v>
+        <v>-0.009286727469546549</v>
       </c>
       <c r="E92">
-        <v>-0.03015420144152294</v>
+        <v>0.08663452838105737</v>
       </c>
       <c r="F92">
-        <v>0.08504236376304262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1076467587159254</v>
+      </c>
+      <c r="G92">
+        <v>0.3122599564578436</v>
+      </c>
+      <c r="H92">
+        <v>-0.01877485636378157</v>
+      </c>
+      <c r="I92">
+        <v>0.0719773759108534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05376770447380146</v>
+        <v>0.08591847780871345</v>
       </c>
       <c r="C93">
-        <v>-0.2913320939538472</v>
+        <v>0.4010210776204373</v>
       </c>
       <c r="D93">
-        <v>0.2578845238408484</v>
+        <v>-0.03474051627135649</v>
       </c>
       <c r="E93">
-        <v>-0.04462958093971109</v>
+        <v>0.08467754264077042</v>
       </c>
       <c r="F93">
-        <v>0.02742983268157714</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01377044659615127</v>
+      </c>
+      <c r="G93">
+        <v>0.03692479776526163</v>
+      </c>
+      <c r="H93">
+        <v>0.04954886306972604</v>
+      </c>
+      <c r="I93">
+        <v>0.01625835420264574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.287782497491097</v>
+        <v>0.3151265602623307</v>
       </c>
       <c r="C94">
-        <v>-0.07251474522745006</v>
+        <v>0.008622186225311919</v>
       </c>
       <c r="D94">
-        <v>0.001479312879445755</v>
+        <v>-0.04790473150847625</v>
       </c>
       <c r="E94">
-        <v>-0.008350703726250261</v>
+        <v>-0.1054046260832496</v>
       </c>
       <c r="F94">
-        <v>0.2811225308280195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2853714737269408</v>
+      </c>
+      <c r="G94">
+        <v>0.08053099900571455</v>
+      </c>
+      <c r="H94">
+        <v>-0.218666543012689</v>
+      </c>
+      <c r="I94">
+        <v>-0.01063879724598537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1684633879309041</v>
+        <v>0.1314456594423808</v>
       </c>
       <c r="C95">
-        <v>0.07219195588560057</v>
+        <v>-0.0665898220374754</v>
       </c>
       <c r="D95">
-        <v>-0.05334076634601047</v>
+        <v>-0.08076098632995732</v>
       </c>
       <c r="E95">
-        <v>-0.07511823360086307</v>
+        <v>-0.026714206609114</v>
       </c>
       <c r="F95">
-        <v>0.4253189681759896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1040504883795181</v>
+      </c>
+      <c r="G95">
+        <v>0.05724283940656782</v>
+      </c>
+      <c r="H95">
+        <v>0.8798319116892597</v>
+      </c>
+      <c r="I95">
+        <v>0.3387485287926084</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2036480519827316</v>
+        <v>0.2081435549034661</v>
       </c>
       <c r="C98">
-        <v>-0.07430316817542013</v>
+        <v>0.06583443217143073</v>
       </c>
       <c r="D98">
-        <v>0.05121912626778847</v>
+        <v>-0.06188816603915573</v>
       </c>
       <c r="E98">
-        <v>-0.0869852008259708</v>
+        <v>0.02384999977072591</v>
       </c>
       <c r="F98">
-        <v>-0.05471562884338851</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1534392698437881</v>
+      </c>
+      <c r="G98">
+        <v>-0.3791775469417001</v>
+      </c>
+      <c r="H98">
+        <v>0.001431928663778988</v>
+      </c>
+      <c r="I98">
+        <v>0.0790071224790653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03047156015816942</v>
+        <v>0.01702932455518827</v>
       </c>
       <c r="C101">
-        <v>0.01260902673761045</v>
+        <v>-0.0334118478097377</v>
       </c>
       <c r="D101">
-        <v>-0.04095420810142396</v>
+        <v>0.004024775158102564</v>
       </c>
       <c r="E101">
-        <v>0.01715177572563172</v>
+        <v>-0.03686892374852423</v>
       </c>
       <c r="F101">
-        <v>-0.02687117330234486</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07249633070333993</v>
+      </c>
+      <c r="G101">
+        <v>0.1038741518490154</v>
+      </c>
+      <c r="H101">
+        <v>-0.02364773046870081</v>
+      </c>
+      <c r="I101">
+        <v>0.1249201285441753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09824220217696827</v>
+        <v>0.1176419385242199</v>
       </c>
       <c r="C102">
-        <v>0.003790517439133082</v>
+        <v>-0.03283083243688562</v>
       </c>
       <c r="D102">
-        <v>-0.05640730141668727</v>
+        <v>0.00311401418378691</v>
       </c>
       <c r="E102">
-        <v>0.03799446115702917</v>
+        <v>-0.0516718337302589</v>
       </c>
       <c r="F102">
-        <v>0.09998995675601464</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1166077166009574</v>
+      </c>
+      <c r="G102">
+        <v>0.01869771573208646</v>
+      </c>
+      <c r="H102">
+        <v>-0.003461080146629801</v>
+      </c>
+      <c r="I102">
+        <v>-0.03880731516986876</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02153793539447292</v>
+        <v>0.02862900936055908</v>
       </c>
       <c r="C103">
-        <v>0.007088159542584318</v>
+        <v>-0.01304327882033132</v>
       </c>
       <c r="D103">
-        <v>-0.01779665022322244</v>
+        <v>0.008518083566136175</v>
       </c>
       <c r="E103">
-        <v>0.005416725753621008</v>
+        <v>-0.01823234970729068</v>
       </c>
       <c r="F103">
-        <v>0.03175156068841847</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.0240907885814378</v>
+      </c>
+      <c r="G103">
+        <v>0.01932955216412691</v>
+      </c>
+      <c r="H103">
+        <v>0.005851096852561288</v>
+      </c>
+      <c r="I103">
+        <v>-0.01382060582967202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
